--- a/published-data/fonds-solidarite/fds-2020-12-28/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-28/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>91347</v>
+        <v>91348</v>
       </c>
       <c r="D479" t="n">
-        <v>132297607</v>
+        <v>132299045</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -37054,10 +37054,10 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>103761</v>
+        <v>103760</v>
       </c>
       <c r="D765" t="n">
-        <v>151087908</v>
+        <v>151086470</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -38398,10 +38398,10 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="D793" t="n">
-        <v>7345291</v>
+        <v>7349507</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
